--- a/Estudio-FG/ataques_completamente_detectados_FG.xlsx
+++ b/Estudio-FG/ataques_completamente_detectados_FG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C1CDAB-55CA-4B54-862C-EDFF03C9F42C}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1848777F-A1C8-46D5-A9F4-74CCC02D8E09}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="25860" windowHeight="19630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9160" yWindow="1150" windowWidth="29640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>FICHERO PCAP</t>
   </si>
@@ -139,6 +139,99 @@
   </si>
   <si>
     <t>25853, 52166</t>
+  </si>
+  <si>
+    <t>T1567.002-Exfiltration_To_Cloud_Storage_[5].pcapng</t>
+  </si>
+  <si>
+    <t>T1602.001-MIB_Dump_[2].pcapng</t>
+  </si>
+  <si>
+    <t>34789, 34795</t>
+  </si>
+  <si>
+    <t>42533, 38131</t>
+  </si>
+  <si>
+    <t>Explicación</t>
+  </si>
+  <si>
+    <t>App-CTRL (Descripción)</t>
+  </si>
+  <si>
+    <t>Directory.Replication.Service.Remote.Protocol.DSGetNCChanges</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta la llamada a la función DSGetNCChanges</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta satisfactoriamente la creación de la sesión SSH</t>
+  </si>
+  <si>
+    <t>Windows.File.Sharing_Read.File</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta satisfactoriamente la lectura de ficheros de un disco compartido</t>
+  </si>
+  <si>
+    <t>File.Upload.HTTP</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta la subida de un fichero por via HTTP</t>
+  </si>
+  <si>
+    <t>El ataque es detectado por las reglas IPS generadas</t>
+  </si>
+  <si>
+    <t>TeamViewer</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta el uso de TeamViewer para la conexión entre equipos</t>
+  </si>
+  <si>
+    <t>Microsoft.Portal</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta satisfactoriamente el uso del portal de Microsoft para la subida de los ficheros</t>
+  </si>
+  <si>
+    <t>PsExec, Microsoft.Service.Controller</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta satisfactoriamente el uso de las herramientas para el arranque de un servicio de forma remota</t>
+  </si>
+  <si>
+    <t>SSL_TLSv1.3</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta satisfactoriamente el uso de esta versión SSL para el cifrado asimétrico</t>
+  </si>
+  <si>
+    <t>DNS_Transfer.Zone</t>
+  </si>
+  <si>
+    <t>El ataque es detectado adecuadamente por el Control de Aplicaciones</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta correctamente el uso de Docker</t>
+  </si>
+  <si>
+    <t>Google.Services, Google.Accounts</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta el uso de los servicios web para llevar a cabo la extracción de los datos en el proceso de ataque</t>
+  </si>
+  <si>
+    <t>SNMP_GetRequest, SNMP_GetNextRequest</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta correctamente las llamadas a las funciones SNMP</t>
   </si>
 </sst>
 </file>
@@ -186,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -196,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,10 +588,11 @@
     <col min="1" max="1" width="57.36328125" customWidth="1"/>
     <col min="2" max="2" width="38.90625" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" customWidth="1"/>
-    <col min="4" max="4" width="36.08984375" customWidth="1"/>
+    <col min="4" max="5" width="36.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +605,14 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,8 +625,14 @@
       <c r="D2" s="1">
         <v>53580</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,8 +643,14 @@
       <c r="D3" s="1">
         <v>16060</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -548,8 +663,14 @@
       <c r="D4" s="1">
         <v>31834</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -562,8 +683,14 @@
       <c r="D5" s="1">
         <v>18123</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -576,8 +703,14 @@
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -590,8 +723,9 @@
       <c r="D7" s="1">
         <v>27457</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -604,8 +738,9 @@
       <c r="D8" s="1">
         <v>42533</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -618,8 +753,14 @@
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -632,8 +773,14 @@
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -646,8 +793,14 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -660,8 +813,14 @@
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -674,8 +833,14 @@
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -688,8 +853,14 @@
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -702,8 +873,14 @@
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -716,8 +893,14 @@
       <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -730,8 +913,9 @@
       <c r="D17" s="1">
         <v>53580</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -744,8 +928,14 @@
       <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -758,8 +948,14 @@
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -772,8 +968,14 @@
       <c r="D20" s="1">
         <v>15921</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -786,8 +988,14 @@
       <c r="D21" s="1">
         <v>15921</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -800,8 +1008,14 @@
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="100" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -814,8 +1028,14 @@
       <c r="D23" s="1">
         <v>41469</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -828,8 +1048,14 @@
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -842,8 +1068,14 @@
       <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -856,8 +1088,14 @@
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="100" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -870,8 +1108,14 @@
       <c r="D27" s="1">
         <v>47013</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -884,8 +1128,14 @@
       <c r="D28" s="1">
         <v>10357</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -898,6 +1148,62 @@
       <c r="D29" s="1">
         <v>46402</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="100" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estudio-FG/ataques_completamente_detectados_FG.xlsx
+++ b/Estudio-FG/ataques_completamente_detectados_FG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1848777F-A1C8-46D5-A9F4-74CCC02D8E09}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30872D48-DF78-4A38-B3C7-F7B1C7DFB9BA}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="1150" windowWidth="29640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9170" yWindow="1460" windowWidth="36600" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>FICHERO PCAP</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>El Control de Aplicaciones detecta correctamente las llamadas a las funciones SNMP</t>
+  </si>
+  <si>
+    <t>Google.Services</t>
+  </si>
+  <si>
+    <t>Windows.File.Sharing</t>
+  </si>
+  <si>
+    <t>El Control de Aplicaciones detecta el uso de esta funcionalidad de Windows</t>
   </si>
 </sst>
 </file>
@@ -279,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +601,7 @@
     <col min="2" max="2" width="38.90625" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" customWidth="1"/>
     <col min="4" max="5" width="36.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -612,7 +624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,11 +640,11 @@
       <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -646,11 +658,11 @@
       <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -710,7 +722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -723,9 +735,14 @@
       <c r="D7" s="1">
         <v>27457</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,7 +755,12 @@
       <c r="D8" s="1">
         <v>42533</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -900,7 +922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,6 +936,9 @@
         <v>53580</v>
       </c>
       <c r="E17" s="1"/>
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -1155,7 +1180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="100" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1180,7 +1205,7 @@
       <c r="J30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>

--- a/Estudio-FG/ataques_completamente_detectados_FG.xlsx
+++ b/Estudio-FG/ataques_completamente_detectados_FG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30872D48-DF78-4A38-B3C7-F7B1C7DFB9BA}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60FEFA52-2E8B-4FD5-8784-3899E0A6F1D6}"/>
   <bookViews>
-    <workbookView xWindow="9170" yWindow="1460" windowWidth="36600" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="930" windowWidth="25780" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
   <si>
     <t>FICHERO PCAP</t>
   </si>
@@ -123,9 +123,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>44780, 12648, 15229, 15463, 46767, 27560, 43336, 12015, 30908, 13106, 24975, 13011, 18057, 15621, 10574, 34971, 12577, 10181, 12758, 12709, 12979, 50825, 12980, 10003, 48010, 15117, 29613, 14946, 15091, 14950, 14857, 14956, 13825, 14947, 15115, 29615, 15100, 14740, 30542, 14157, 15092, 14949, 15118, 29564, 14742, 15110, 14230, 10819, 14737, 14953, 15114, 14341, 29614, 14948, 32033, 29965, 31752, 47202</t>
-  </si>
-  <si>
     <t>46199, 15621</t>
   </si>
   <si>
@@ -241,6 +238,54 @@
   </si>
   <si>
     <t>El Control de Aplicaciones detecta el uso de esta funcionalidad de Windows</t>
+  </si>
+  <si>
+    <t>T1114-Email_collection_remote_email_collection_[4].pcapng</t>
+  </si>
+  <si>
+    <t>44780, 12648, 12475, 15229, 10604, 15463, 12699, 12935, 12560, 12426, 12439, 29261, 46767, 29264, 13116, 27560, 43336, 12265, 12015, 13106, 13011, 56146, 14088, 15621, 17702, 10574, 12577, 15221, 12909, 12933, 13056, 12758, 12709, 12459, 24975, 30908, 56270, 12979, 13801, 50825, 12980, 10003, 48010, 15117, 29613, 14946, 15091, 14950, 14957, 14848, 14955, 14857, 14956, 13825, 14305, 14849, 15115, 29615, 15100, 14873, 14847, 14954, 14374, 14740, 14286, 30542, 14405, 14338, 14157, 15116, 15092, 14850, 14942, 14949, 14852, 15118, 29564, 14855, 14859, 14743, 14734, 14742, 14406, 15110, 14953, 14851, 14404, 15114, 14952, 14856, 14341, 14858, 14266, 14736, 14345, 15225, 29614, 14484, 14948, 29965, 31752, 29263, 47202</t>
+  </si>
+  <si>
+    <t>T1187-Forced_Authentication_[5].pcapng</t>
+  </si>
+  <si>
+    <t>T1187-Forced_Authentication2_[5].pcapng</t>
+  </si>
+  <si>
+    <t>T1199-Trusted_relationship_[4].pcapng</t>
+  </si>
+  <si>
+    <t>RDP</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones detecta el intento de establecimiento de sesión con RDP</t>
+  </si>
+  <si>
+    <t>T1203-CIC2018</t>
+  </si>
+  <si>
+    <t>T1499-Land_[1].pcapng</t>
+  </si>
+  <si>
+    <t>T1498.001-UDP_flood_[2].pcapng</t>
+  </si>
+  <si>
+    <t>T1499-Reseteo_[1].pcapng</t>
+  </si>
+  <si>
+    <t>T1499.02-Slowloris-C2018_[6].pcapng</t>
+  </si>
+  <si>
+    <t>17533, 107347979</t>
+  </si>
+  <si>
+    <t>T1505.005-Shell_Web_[2].pcapng</t>
+  </si>
+  <si>
+    <t>T1498.001-HTTP_flood-C2018_[6].pcapng</t>
+  </si>
+  <si>
+    <t>T1498.001-TCP_flood-C2018_[6].pcapng</t>
   </si>
 </sst>
 </file>
@@ -589,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,13 +660,13 @@
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -638,10 +683,10 @@
         <v>53580</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -656,10 +701,10 @@
         <v>16060</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
@@ -676,10 +721,10 @@
         <v>31834</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
@@ -696,21 +741,21 @@
         <v>18123</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" ht="262.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -719,7 +764,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
@@ -736,10 +781,10 @@
         <v>27457</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
@@ -756,10 +801,10 @@
         <v>42533</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
@@ -779,7 +824,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.35">
@@ -799,7 +844,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="50" x14ac:dyDescent="0.35">
@@ -819,10 +864,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -839,396 +884,636 @@
         <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1">
+        <v>48934</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12090</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12090</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
         <v>49480</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B17" s="1">
         <v>35</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C17" s="1">
         <v>15621</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>15621</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B19" s="1">
         <v>76</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15511</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1">
+        <v>17702</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1">
         <v>53580</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>40511</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1">
-        <v>15921</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="1">
-        <v>15921</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>15621</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="100" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>40511</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1">
+        <v>15921</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15921</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12525</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>107347977</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>30952</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>17677</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12588</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15621</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>12449</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1">
         <v>41469</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="1" t="s">
+    </row>
+    <row r="36" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>15621</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>15621</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1">
+        <v>47013</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10357</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1">
+        <v>46402</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="100" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1">
-        <v>47013</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1">
-        <v>10357</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="1">
-        <v>46402</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estudio-FG/ataques_completamente_detectados_FG.xlsx
+++ b/Estudio-FG/ataques_completamente_detectados_FG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60FEFA52-2E8B-4FD5-8784-3899E0A6F1D6}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F69179BE-526D-49D4-B08B-17F4EF8C4199}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="930" windowWidth="25780" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="700" windowWidth="25780" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>FICHERO PCAP</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>T1498.001-TCP_flood-C2018_[6].pcapng</t>
+  </si>
+  <si>
+    <t>T1197-BITS_Jobs_[5].pcapng</t>
+  </si>
+  <si>
+    <t>15893, 33224</t>
+  </si>
+  <si>
+    <t>(Interesa más el campo agent=Microsoft BITS 7/8)</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones detecta el uso de Microsoft BITS para la creación del servicio</t>
   </si>
 </sst>
 </file>
@@ -634,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1029,125 +1041,125 @@
     </row>
     <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
         <v>15511</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>112</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>17702</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
         <v>53580</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
         <v>40511</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1">
-        <v>15921</v>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1165,35 +1177,35 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="1">
-        <v>12525</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>31</v>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15921</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>107347977</v>
+        <v>12525</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
@@ -1207,13 +1219,13 @@
     </row>
     <row r="29" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>30952</v>
+        <v>107347977</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>31</v>
@@ -1227,13 +1239,13 @@
     </row>
     <row r="30" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>17677</v>
+        <v>30952</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
@@ -1247,13 +1259,13 @@
     </row>
     <row r="31" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>12588</v>
+        <v>17677</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -1267,13 +1279,13 @@
     </row>
     <row r="32" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>83</v>
+      <c r="C32" s="1">
+        <v>12588</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
@@ -1287,13 +1299,13 @@
     </row>
     <row r="33" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="1">
-        <v>15621</v>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -1307,207 +1319,202 @@
     </row>
     <row r="34" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15621</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
         <v>12449</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1">
         <v>41469</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>15621</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>15621</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>11</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="1">
         <v>47013</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="1">
-        <v>10357</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10357</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="1">
         <v>46402</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="1"/>
@@ -1515,6 +1522,31 @@
       <c r="J43" s="1"/>
       <c r="L43" s="1"/>
     </row>
+    <row r="44" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
